--- a/resources/Pay with Amazon for Magento Testing Guide.xlsx
+++ b/resources/Pay with Amazon for Magento Testing Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="920" windowWidth="28800" windowHeight="17480" tabRatio="590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="How to Use" sheetId="12" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Dev-environment licenses</t>
   </si>
   <si>
-    <t>Standard Checkout</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>1. Add an item to the cart.
 2. Navigate to the cart.
 3. Click the Pay with Amazon button on the cart page and login pop-up is displayed and you are able to successfully login to the cart.</t>
-  </si>
-  <si>
-    <t>Direct Checkout</t>
   </si>
   <si>
     <t>1. After starting checkout, the Amazon Shipping and Payment options are displayed.</t>
@@ -306,6 +300,100 @@
     </r>
   </si>
   <si>
+    <t>1. After selecting a shipping method, the appropriate tax calculation is applied to the order.</t>
+  </si>
+  <si>
+    <t>1. The customer receives two emails, one from Magento and one from Amazon Payments.</t>
+  </si>
+  <si>
+    <t>Order Receipts</t>
+  </si>
+  <si>
+    <t>Order Placement</t>
+  </si>
+  <si>
+    <t>Invoicing</t>
+  </si>
+  <si>
+    <t>Refunds</t>
+  </si>
+  <si>
+    <t>Full Refund</t>
+  </si>
+  <si>
+    <t>Partial Refund</t>
+  </si>
+  <si>
+    <t>1. You're able to provide a partial refund for a transaction.</t>
+  </si>
+  <si>
+    <t>1. You're able to create a credit memo for a previous order.
+2. The buyer receives an email from Amazon indicating the refund was processed.
+3. The refund appears in Seller Central under "Orders" -&gt; "Manage Transactions"</t>
+  </si>
+  <si>
+    <t>1. Able to complete checkout using IE.</t>
+  </si>
+  <si>
+    <t>1. Able to complete checkout using Firefox.</t>
+  </si>
+  <si>
+    <t>1. Able to complete checkout using Chrome.</t>
+  </si>
+  <si>
+    <t>1. Able to complete checkout using Safari.</t>
+  </si>
+  <si>
+    <t>1. Able to complete checkout using iOS.</t>
+  </si>
+  <si>
+    <t>1. Able to complete checkout using Android.</t>
+  </si>
+  <si>
+    <t>1. Customer is able to register a new account using Login with Amazon.</t>
+  </si>
+  <si>
+    <t>1. Customer is able to login to an existing account using Login with Amazon.</t>
+  </si>
+  <si>
+    <t>1. Logout.
+2. Add an item to the cart.
+3. Navigate to the cart.
+4. Click the standard "Proceed to Checkout" option (not "Pay with Amazon").
+5. Click "Pay with Amazon" instead of the "Register" or "Guest" options and you are able to successfully login to the cart.</t>
+  </si>
+  <si>
+    <t>1. If you've configured the module to "Authorize Only", you're able to create an invoice to capture funds for the transaction.
+2. The payment transaction appears in Seller Central under "Orders" -&gt; "Manage Transactions"</t>
+  </si>
+  <si>
+    <t>1. After selecting an address and payment option, the buyer is shown appropritate shipping options based on their address.
+2. You are able to modify the shipping address and shipping options are updated.</t>
+  </si>
+  <si>
+    <t>1. The customer is able to complete checkout and shown an appropriate confirmation screen.</t>
+  </si>
+  <si>
+    <t>Other Scenarios</t>
+  </si>
+  <si>
+    <t>International Buyers</t>
+  </si>
+  <si>
+    <t>If applicable, you are able to accept orders from customers with an international shipping address.</t>
+  </si>
+  <si>
+    <t>1. The customer receives two emails, one from Magento and one from Amazon Payments.
+2. The Amazon order receipt contains your store name and applicable contact information.</t>
+  </si>
+  <si>
+    <t>1. The order appears in your Magento order management including the full shipping address of the customer.
+2. The payment transaction appears in Seller Central under "Orders" -&gt; "Manage Transactions"</t>
+  </si>
+  <si>
+    <t>If applicable, customers are able to apply promotional codes to orders.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">If you identify any issues, please report them using GitHub:  </t>
     </r>
@@ -328,102 +416,34 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-If you have any questions, you can also email ngrice@amazon.com and rjamison@amazon.com.</t>
+If you have any questions, you can also email us directly at </t>
     </r>
-  </si>
-  <si>
-    <t>1. After selecting a shipping method, the appropriate tax calculation is applied to the order.</t>
-  </si>
-  <si>
-    <t>1. The customer receives two emails, one from Magento and one from Amazon Payments.</t>
-  </si>
-  <si>
-    <t>Order Receipts</t>
-  </si>
-  <si>
-    <t>Order Placement</t>
-  </si>
-  <si>
-    <t>Invoicing</t>
-  </si>
-  <si>
-    <t>Refunds</t>
-  </si>
-  <si>
-    <t>Full Refund</t>
-  </si>
-  <si>
-    <t>Partial Refund</t>
-  </si>
-  <si>
-    <t>1. You're able to provide a partial refund for a transaction.</t>
-  </si>
-  <si>
-    <t>1. You're able to create a credit memo for a previous order.
-2. The buyer receives an email from Amazon indicating the refund was processed.
-3. The refund appears in Seller Central under "Orders" -&gt; "Manage Transactions"</t>
-  </si>
-  <si>
-    <t>1. Able to complete checkout using IE.</t>
-  </si>
-  <si>
-    <t>1. Able to complete checkout using Firefox.</t>
-  </si>
-  <si>
-    <t>1. Able to complete checkout using Chrome.</t>
-  </si>
-  <si>
-    <t>1. Able to complete checkout using Safari.</t>
-  </si>
-  <si>
-    <t>1. Able to complete checkout using iOS.</t>
-  </si>
-  <si>
-    <t>1. Able to complete checkout using Android.</t>
-  </si>
-  <si>
-    <t>1. Customer is able to register a new account using Login with Amazon.</t>
-  </si>
-  <si>
-    <t>1. Customer is able to login to an existing account using Login with Amazon.</t>
-  </si>
-  <si>
-    <t>1. Logout.
-2. Add an item to the cart.
-3. Navigate to the cart.
-4. Click the standard "Proceed to Checkout" option (not "Pay with Amazon").
-5. Click "Pay with Amazon" instead of the "Register" or "Guest" options and you are able to successfully login to the cart.</t>
-  </si>
-  <si>
-    <t>1. If you've configured the module to "Authorize Only", you're able to create an invoice to capture funds for the transaction.
-2. The payment transaction appears in Seller Central under "Orders" -&gt; "Manage Transactions"</t>
-  </si>
-  <si>
-    <t>1. After selecting an address and payment option, the buyer is shown appropritate shipping options based on their address.
-2. You are able to modify the shipping address and shipping options are updated.</t>
-  </si>
-  <si>
-    <t>1. The customer is able to complete checkout and shown an appropriate confirmation screen.</t>
-  </si>
-  <si>
-    <t>Other Scenarios</t>
-  </si>
-  <si>
-    <t>International Buyers</t>
-  </si>
-  <si>
-    <t>If applicable, you are able to accept orders from customers with an international shipping address.</t>
-  </si>
-  <si>
-    <t>1. The customer receives two emails, one from Magento and one from Amazon Payments.
-2. The Amazon order receipt contains your store name and applicable contact information.</t>
-  </si>
-  <si>
-    <t>1. The order appears in your Magento order management including the full shipping address of the customer.
-2. The payment transaction appears in Seller Central under "Orders" -&gt; "Manage Transactions"</t>
-  </si>
-  <si>
-    <t>If applicable, customers are able to apply promotional codes to orders.</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>payments-cp-devel@amazon.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Magento Core OnePage Checkout</t>
+  </si>
+  <si>
+    <t>Amazon Standalone Checkout</t>
   </si>
 </sst>
 </file>
@@ -515,7 +535,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -605,8 +625,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -629,8 +650,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="89" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="90">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -719,6 +743,7 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1018,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1032,27 +1057,30 @@
   <sheetData>
     <row r="1" spans="1:2" ht="168">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="280">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1069,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1092,10 +1120,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>1</v>
@@ -1103,13 +1131,13 @@
     </row>
     <row r="2" spans="1:6" ht="56">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1117,13 +1145,13 @@
     </row>
     <row r="3" spans="1:6" ht="28">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1131,13 +1159,13 @@
     </row>
     <row r="4" spans="1:6" ht="56">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1145,13 +1173,13 @@
     </row>
     <row r="5" spans="1:6" ht="28">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1159,13 +1187,13 @@
     </row>
     <row r="6" spans="1:6" ht="28">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1173,13 +1201,13 @@
     </row>
     <row r="7" spans="1:6" ht="56">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1187,13 +1215,13 @@
     </row>
     <row r="8" spans="1:6" ht="56">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1201,13 +1229,13 @@
     </row>
     <row r="9" spans="1:6" ht="56">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1215,13 +1243,13 @@
     </row>
     <row r="10" spans="1:6" ht="84">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1229,13 +1257,13 @@
     </row>
     <row r="11" spans="1:6" ht="28">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1243,13 +1271,13 @@
     </row>
     <row r="12" spans="1:6" ht="56">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1257,13 +1285,13 @@
     </row>
     <row r="13" spans="1:6" ht="28">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1271,13 +1299,13 @@
     </row>
     <row r="14" spans="1:6" ht="28">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1285,13 +1313,13 @@
     </row>
     <row r="15" spans="1:6" ht="28">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1299,13 +1327,13 @@
     </row>
     <row r="16" spans="1:6" ht="56">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1313,13 +1341,13 @@
     </row>
     <row r="17" spans="1:6" ht="56">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1327,13 +1355,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1341,13 +1369,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1355,13 +1383,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1369,13 +1397,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1383,13 +1411,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1397,13 +1425,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1411,13 +1439,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1425,13 +1453,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1439,13 +1467,13 @@
     </row>
     <row r="26" spans="1:6" ht="70">
       <c r="A26" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1453,13 +1481,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1467,13 +1495,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1481,13 +1509,13 @@
     </row>
     <row r="29" spans="1:6" ht="28">
       <c r="A29" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
